--- a/src/test/resources/registrationData.xlsx
+++ b/src/test/resources/registrationData.xlsx
@@ -25,10 +25,10 @@
     <t>http://dsportalapp.herokuapp.com/</t>
   </si>
   <si>
-    <t>numasdfnh</t>
-  </si>
-  <si>
-    <t>thynumhim</t>
+    <t>nuhandfnh</t>
+  </si>
+  <si>
+    <t>tzynunhim</t>
   </si>
 </sst>
 </file>
